--- a/regions/10/biznes seqtori/sakutrebis formis mikhedvit.xlsx
+++ b/regions/10/biznes seqtori/sakutrebis formis mikhedvit.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C870F9-5818-4701-95B3-57C6FFBB4EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,9 +16,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
-  <si>
-    <t>ბიზენს სექტორი</t>
-  </si>
   <si>
     <t>საწარმოთა ბრუნვა  ქ.თბილისში, საკუთრების ფორმების მიხედვით, მლნ. ლარი</t>
   </si>
@@ -44,11 +42,14 @@
   <si>
     <t>გამოშვებული პროდუქცია  ქ.თბილისში, საკუთრების ფორმების მიხედვით, მლნ. ლარი</t>
   </si>
+  <si>
+    <t>ბიზნეს სექტორი</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#.0;\-#.0;\-"/>
@@ -244,7 +245,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -335,6 +336,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -370,6 +388,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -545,11 +580,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,9 +596,9 @@
     <col min="16" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -575,7 +610,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -587,9 +622,9 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -601,7 +636,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -613,7 +648,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>2006</v>
@@ -660,10 +695,16 @@
       <c r="P5" s="9">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="9">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="19">
         <v>9023.1</v>
@@ -710,10 +751,16 @@
       <c r="P6" s="20">
         <v>88036.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q6" s="20">
+        <v>116964.11887317074</v>
+      </c>
+      <c r="R6" s="20">
+        <v>139327.79999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="21">
         <v>5771.5</v>
@@ -760,10 +807,16 @@
       <c r="P7" s="23">
         <v>56737.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q7" s="23">
+        <v>89195.836657874432</v>
+      </c>
+      <c r="R7" s="23">
+        <v>103161.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="21">
         <v>2303.1</v>
@@ -810,10 +863,16 @@
       <c r="P8" s="23">
         <v>28773.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="23">
+        <v>24782.020640979968</v>
+      </c>
+      <c r="R8" s="23">
+        <v>32352.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="22">
         <v>948.6</v>
@@ -860,8 +919,14 @@
       <c r="P9" s="23">
         <v>2525.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q9" s="23">
+        <v>2986.2615743163315</v>
+      </c>
+      <c r="R9" s="23">
+        <v>3813.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -876,9 +941,9 @@
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -893,7 +958,7 @@
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -908,7 +973,7 @@
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="8">
         <v>2006</v>
@@ -955,10 +1020,16 @@
       <c r="P13" s="9">
         <v>2020</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="9">
+        <v>2021</v>
+      </c>
+      <c r="R13" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="19">
         <v>4583.6000000000004</v>
@@ -1005,10 +1076,16 @@
       <c r="P14" s="20">
         <v>28464.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q14" s="20">
+        <v>34882.092919506002</v>
+      </c>
+      <c r="R14" s="20">
+        <v>44408.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="21">
         <v>2503.5</v>
@@ -1055,10 +1132,16 @@
       <c r="P15" s="23">
         <v>19900.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q15" s="23">
+        <v>24261.002800183996</v>
+      </c>
+      <c r="R15" s="23">
+        <v>29809.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="21">
         <v>1247.2</v>
@@ -1105,10 +1188,16 @@
       <c r="P16" s="23">
         <v>7160.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="23">
+        <v>8811.4450941200012</v>
+      </c>
+      <c r="R16" s="23">
+        <v>12302.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="22">
         <v>832.9</v>
@@ -1155,8 +1244,14 @@
       <c r="P17" s="23">
         <v>1403.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q17" s="23">
+        <v>1809.6450252019999</v>
+      </c>
+      <c r="R17" s="23">
+        <v>2296.1999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1168,9 +1263,9 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -1182,7 +1277,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1194,7 +1289,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="8">
         <v>2006</v>
@@ -1241,10 +1336,16 @@
       <c r="P21" s="9">
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="9">
+        <v>2021</v>
+      </c>
+      <c r="R21" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="24">
         <v>189598</v>
@@ -1291,10 +1392,16 @@
       <c r="P22" s="24">
         <v>443272.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q22" s="24">
+        <v>460576.03821305098</v>
+      </c>
+      <c r="R22" s="24">
+        <v>484705</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="25">
         <v>107033</v>
@@ -1341,10 +1448,16 @@
       <c r="P23" s="26">
         <v>321257.90000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q23" s="26">
+        <v>332879.68576200499</v>
+      </c>
+      <c r="R23" s="26">
+        <v>342784</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="25">
         <v>24927</v>
@@ -1391,10 +1504,16 @@
       <c r="P24" s="26">
         <v>76970.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="26">
+        <v>80940.339084010004</v>
+      </c>
+      <c r="R24" s="26">
+        <v>95197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="25">
         <v>57637</v>
@@ -1441,8 +1560,14 @@
       <c r="P25" s="26">
         <v>45043.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q25" s="26">
+        <v>46756.013367036001</v>
+      </c>
+      <c r="R25" s="26">
+        <v>46725</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1454,9 +1579,9 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1468,7 +1593,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1480,7 +1605,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="9">
         <v>2006</v>
@@ -1527,10 +1652,16 @@
       <c r="P29" s="9">
         <v>2020</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="9">
+        <v>2021</v>
+      </c>
+      <c r="R29" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="19">
         <v>347.4</v>
@@ -1577,10 +1708,16 @@
       <c r="P30" s="20">
         <v>1348.1</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q30" s="20">
+        <v>1505.8</v>
+      </c>
+      <c r="R30" s="20">
+        <v>1791.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" s="21">
         <v>322.5</v>
@@ -1627,10 +1764,16 @@
       <c r="P31" s="23">
         <v>1259.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q31" s="23">
+        <v>1417.4</v>
+      </c>
+      <c r="R31" s="23">
+        <v>1626.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="21">
         <v>550.29999999999995</v>
@@ -1677,10 +1820,16 @@
       <c r="P32" s="23">
         <v>1794.7</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="23">
+        <v>1961.3</v>
+      </c>
+      <c r="R32" s="23">
+        <v>2545.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="22">
         <v>304.10000000000002</v>
@@ -1727,14 +1876,20 @@
       <c r="P33" s="23">
         <v>1203.5999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33" s="23">
+        <v>1329.6</v>
+      </c>
+      <c r="R33" s="23">
+        <v>1443.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F34" s="13"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F35" s="13"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F36" s="13"/>
     </row>
   </sheetData>
